--- a/Code/Results/Cases/Case_2_224/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_224/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.130993346123432</v>
+        <v>0.5331505541342381</v>
       </c>
       <c r="C2">
-        <v>0.08600119060043454</v>
+        <v>0.1057959876820505</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.06508395211921325</v>
+        <v>0.09971148296677157</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.0008205651099698619</v>
+        <v>0.002467003654033875</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3500898181610168</v>
+        <v>0.8606561198313081</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9529851467549406</v>
+        <v>0.3290543506840038</v>
       </c>
       <c r="L2">
-        <v>0.2563844996053035</v>
+        <v>0.2049819237102781</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.389018782306849</v>
+        <v>3.282649908514259</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9835581142014576</v>
+        <v>0.4891433345004543</v>
       </c>
       <c r="C3">
-        <v>0.08334919838513599</v>
+        <v>0.1049476832844576</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06062121318277391</v>
+        <v>0.09920872303841222</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.0008240486329291668</v>
+        <v>0.002469229783322664</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3652043514033601</v>
+        <v>0.8713952541556189</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.830847865639015</v>
+        <v>0.2908983227742965</v>
       </c>
       <c r="L3">
-        <v>0.2265425236431895</v>
+        <v>0.1977173683576581</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.430539355164186</v>
+        <v>3.320983056847922</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8931715081132268</v>
+        <v>0.4621895096719015</v>
       </c>
       <c r="C4">
-        <v>0.0817343986799699</v>
+        <v>0.1044315231265713</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05797116886152054</v>
+        <v>0.09895297245058998</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.0008262566997792875</v>
+        <v>0.002470669215449162</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.375336657896252</v>
+        <v>0.8784481333453265</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7558640979942197</v>
+        <v>0.2674344730348821</v>
       </c>
       <c r="L4">
-        <v>0.2084332232172557</v>
+        <v>0.1933620614794194</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.459616593777014</v>
+        <v>3.346397436567059</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.85636184116359</v>
+        <v>0.4512231724378921</v>
       </c>
       <c r="C5">
-        <v>0.08107958183185815</v>
+        <v>0.1042223939967073</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05691281259736769</v>
+        <v>0.09886208814385355</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0008271741961891066</v>
+        <v>0.00247127409951309</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3796731394493218</v>
+        <v>0.8814376422975005</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7253010202107788</v>
+        <v>0.2578643485696404</v>
       </c>
       <c r="L5">
-        <v>0.2011027249515678</v>
+        <v>0.1916137753094773</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.472334609121972</v>
+        <v>3.357226010167452</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.85025072960957</v>
+        <v>0.4494033041486034</v>
       </c>
       <c r="C6">
-        <v>0.08097104004860256</v>
+        <v>0.1041877421881452</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05673834426941227</v>
+        <v>0.09884780300275153</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.0008273276226719352</v>
+        <v>0.002471375646755765</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3804055490189171</v>
+        <v>0.8819410175475841</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7202253984915643</v>
+        <v>0.2562747464634896</v>
       </c>
       <c r="L6">
-        <v>0.199888342771203</v>
+        <v>0.1913250792334225</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.474497983241264</v>
+        <v>3.359052590317347</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8926749990614553</v>
+        <v>0.4620415416674177</v>
       </c>
       <c r="C7">
-        <v>0.08172555474570231</v>
+        <v>0.1044286977995696</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.05795680962413741</v>
+        <v>0.09895169272559556</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.000826269001533465</v>
+        <v>0.002470677298900508</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3753943097922843</v>
+        <v>0.8784879836681583</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7554519516031064</v>
+        <v>0.2673054402505954</v>
       </c>
       <c r="L7">
-        <v>0.2083341682710795</v>
+        <v>0.1933383759101304</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.459784637208202</v>
+        <v>3.346541563555093</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.080121669451557</v>
+        <v>0.517963451371827</v>
       </c>
       <c r="C8">
-        <v>0.08508386301390658</v>
+        <v>0.1055025327852661</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.06352582366424642</v>
+        <v>0.09952715543666812</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.0008217520559115012</v>
+        <v>0.002467756191466366</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3551203472548572</v>
+        <v>0.8642636965744934</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9108648096087961</v>
+        <v>0.3159059561877484</v>
       </c>
       <c r="L8">
-        <v>0.2460477840061799</v>
+        <v>0.2024553325890821</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.402571453742581</v>
+        <v>3.295477380164968</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.44937425104996</v>
+        <v>0.6281277599456701</v>
       </c>
       <c r="C9">
-        <v>0.09178598126450765</v>
+        <v>0.1076445235300838</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.07521398638333565</v>
+        <v>0.1010749362370902</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.0008134289586621081</v>
+        <v>0.002462601376394921</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3224405724021615</v>
+        <v>0.8400125127313736</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.216141527729008</v>
+        <v>0.410904419114047</v>
       </c>
       <c r="L9">
-        <v>0.3219213101875766</v>
+        <v>0.2211650685690358</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.320336990318836</v>
+        <v>3.210245566488595</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.722546041078886</v>
+        <v>0.7093414612786546</v>
       </c>
       <c r="C10">
-        <v>0.0967954500631123</v>
+        <v>0.109239005707785</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.08434661110547381</v>
+        <v>0.102466897348112</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0008076189533664331</v>
+        <v>0.002459160335301414</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3032090840229245</v>
+        <v>0.8244162953129077</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.441417008687665</v>
+        <v>0.4804896305834347</v>
       </c>
       <c r="L10">
-        <v>0.3791639256728843</v>
+        <v>0.2354156205236819</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.280420646776477</v>
+        <v>3.156720669277647</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.847435273634744</v>
+        <v>0.7463418150489929</v>
       </c>
       <c r="C11">
-        <v>0.09909652767144195</v>
+        <v>0.1099686215239757</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.08863796898939569</v>
+        <v>0.1031553097058158</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0008050371547417901</v>
+        <v>0.002457669367557512</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2956071873174757</v>
+        <v>0.8178035771634953</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.544278450219934</v>
+        <v>0.5120956772026091</v>
       </c>
       <c r="L11">
-        <v>0.4056086579236933</v>
+        <v>0.2420077173974562</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.267242386247119</v>
+        <v>3.134347547766382</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.894835110720351</v>
+        <v>0.7603602488313754</v>
       </c>
       <c r="C12">
-        <v>0.09997140470967736</v>
+        <v>0.1102454978530787</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.09028428404347366</v>
+        <v>0.1034239128937173</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0008040678710720373</v>
+        <v>0.002457115418087628</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.2929032488758345</v>
+        <v>0.8153688595724944</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.583298622913503</v>
+        <v>0.5240565509353985</v>
       </c>
       <c r="L12">
-        <v>0.4156876700708949</v>
+        <v>0.244519640228205</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.263015682970718</v>
+        <v>3.126159712489226</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.884621655652211</v>
+        <v>0.7573408210689934</v>
       </c>
       <c r="C13">
-        <v>0.09978282297462471</v>
+        <v>0.1101858419414583</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.08992874823938024</v>
+        <v>0.1033657126546714</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0008042762575086504</v>
+        <v>0.002457234248303131</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2934776551149518</v>
+        <v>0.8158901332440429</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.574891641095149</v>
+        <v>0.5214809134841971</v>
       </c>
       <c r="L13">
-        <v>0.4135139725098611</v>
+        <v>0.2439779587564175</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.263891225931431</v>
+        <v>3.127910456845939</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.851332637247623</v>
+        <v>0.747494980399324</v>
       </c>
       <c r="C14">
-        <v>0.09916843212764093</v>
+        <v>0.109991388710533</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.08877297656207617</v>
+        <v>0.1031772493204137</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0008049572455714192</v>
+        <v>0.00245762358070929</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.2953811719577111</v>
+        <v>0.8176018807958556</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.547487202275022</v>
+        <v>0.5130798625717432</v>
       </c>
       <c r="L14">
-        <v>0.4064365219420978</v>
+        <v>0.2422140619490136</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.266879065145773</v>
+        <v>3.133668228578173</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.830956629249698</v>
+        <v>0.7414650322499199</v>
       </c>
       <c r="C15">
-        <v>0.09879256665725933</v>
+        <v>0.1098723560514614</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.08806785199259792</v>
+        <v>0.1030628403866807</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0008053754500352691</v>
+        <v>0.002457863443311499</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2965701901987785</v>
+        <v>0.8186594118715647</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.530710575704916</v>
+        <v>0.5079329605077589</v>
       </c>
       <c r="L15">
-        <v>0.4021100480639177</v>
+        <v>0.2411356578874404</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.268810113553201</v>
+        <v>3.137232073262552</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.714398223510443</v>
+        <v>0.7069244539850388</v>
       </c>
       <c r="C16">
-        <v>0.09664554270377579</v>
+        <v>0.1091914072389812</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.08406904860694198</v>
+        <v>0.1024230169442255</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.000807788876717078</v>
+        <v>0.002459259266128363</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3037297862428119</v>
+        <v>0.8248581571808451</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.434703622294705</v>
+        <v>0.4784230664196798</v>
       </c>
       <c r="L16">
-        <v>0.3774444128535634</v>
+        <v>0.2349870053608356</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.281386074875584</v>
+        <v>3.158222584611863</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.643064814817535</v>
+        <v>0.6857486397104822</v>
       </c>
       <c r="C17">
-        <v>0.09533432210734105</v>
+        <v>0.1087747425098655</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.08165206909077227</v>
+        <v>0.1020446292421013</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.0008092848247709015</v>
+        <v>0.002460134574241664</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.308422450575609</v>
+        <v>0.8287843963285937</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.375913909363845</v>
+        <v>0.4603067807273646</v>
       </c>
       <c r="L17">
-        <v>0.3624211852557835</v>
+        <v>0.2312429678412116</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.290409307802904</v>
+        <v>3.17160579305343</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.602093146164464</v>
+        <v>0.6735741759411837</v>
       </c>
       <c r="C18">
-        <v>0.09458221626164232</v>
+        <v>0.1085354923217707</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.08027466945646822</v>
+        <v>0.1018321878445931</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0008101510413698877</v>
+        <v>0.002460645032016762</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3112288438576378</v>
+        <v>0.8310880376726928</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.342134738618341</v>
+        <v>0.4498822357188885</v>
       </c>
       <c r="L18">
-        <v>0.3538178908234642</v>
+        <v>0.2290998043675216</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.296064936065378</v>
+        <v>3.179489398344771</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.588230191413231</v>
+        <v>0.6694530479680907</v>
       </c>
       <c r="C19">
-        <v>0.09432791330347357</v>
+        <v>0.108454556637632</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.0798104543572542</v>
+        <v>0.1017611521194119</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.0008104453335140056</v>
+        <v>0.00246081906871754</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.312197178861247</v>
+        <v>0.8318758022006065</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.330703320291519</v>
+        <v>0.4463519048612454</v>
       </c>
       <c r="L19">
-        <v>0.3509112342170511</v>
+        <v>0.2283759394650815</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.298058423035371</v>
+        <v>3.182190577843272</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.650652312019702</v>
+        <v>0.6880022982844309</v>
       </c>
       <c r="C20">
-        <v>0.09547368701845471</v>
+        <v>0.1088190555409199</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.08190802650715767</v>
+        <v>0.1020843715247963</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.00080912498260767</v>
+        <v>0.002460040671672851</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3079117342877993</v>
+        <v>0.8283617452090191</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.38216844368128</v>
+        <v>0.4622357645759791</v>
       </c>
       <c r="L20">
-        <v>0.3640164873964693</v>
+        <v>0.2316404609226055</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.289400236615762</v>
+        <v>3.170161881714307</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.861107378729969</v>
+        <v>0.7503867535567963</v>
       </c>
       <c r="C21">
-        <v>0.09934879576531586</v>
+        <v>0.1100484886422777</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.08911186427469886</v>
+        <v>0.1032323908952577</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.0008047569986772178</v>
+        <v>0.002457508935849272</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2948172388888537</v>
+        <v>0.8170972158008496</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.555534568663944</v>
+        <v>0.5155476677352056</v>
       </c>
       <c r="L21">
-        <v>0.4085135214129991</v>
+        <v>0.2427317375635596</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.265980345297024</v>
+        <v>3.131969311158102</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.999284676626758</v>
+        <v>0.7912002036526928</v>
       </c>
       <c r="C22">
-        <v>0.101902021249316</v>
+        <v>0.1108554006579183</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.09394478324728084</v>
+        <v>0.1040288204446043</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0008019509464787315</v>
+        <v>0.002455916340673137</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2872827690831556</v>
+        <v>0.8101395912735825</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.669247398045997</v>
+        <v>0.550345183032789</v>
       </c>
       <c r="L22">
-        <v>0.4379770516336805</v>
+        <v>0.2500716363759494</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.255149453919927</v>
+        <v>3.108665977573992</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.925472813080972</v>
+        <v>0.7694137627983935</v>
       </c>
       <c r="C23">
-        <v>0.1005373199875095</v>
+        <v>0.1104244341964034</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.09135339328717862</v>
+        <v>0.1035995370587166</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.0008034442785704437</v>
+        <v>0.002456760677728542</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.291206974724016</v>
+        <v>0.813815986649125</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.6085145563639</v>
+        <v>0.5317774193455307</v>
       </c>
       <c r="L23">
-        <v>0.4222144891833892</v>
+        <v>0.2461458909105119</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.260504056469429</v>
+        <v>3.120951628850179</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.647221884811131</v>
+        <v>0.6869834198234344</v>
       </c>
       <c r="C24">
-        <v>0.09541067476960308</v>
+        <v>0.1087990206963099</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.0817922704208236</v>
+        <v>0.1020663881554853</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.0008091972280117741</v>
+        <v>0.002460083102573517</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3081422918496948</v>
+        <v>0.8285526812690662</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.379340708015434</v>
+        <v>0.461363699744453</v>
       </c>
       <c r="L24">
-        <v>0.3632951466517511</v>
+        <v>0.2314607252212539</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.289854983379399</v>
+        <v>3.170814084018346</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.349217209598891</v>
+        <v>0.5982747882083288</v>
       </c>
       <c r="C25">
-        <v>0.08995900199943918</v>
+        <v>0.1070613186822911</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.07196214174597415</v>
+        <v>0.100611414942648</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.0008156254389854456</v>
+        <v>0.002463934849905751</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.33047742755247</v>
+        <v>0.8461830839271052</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.13343425609068</v>
+        <v>0.3852400730747831</v>
       </c>
       <c r="L25">
-        <v>0.3011574538341364</v>
+        <v>0.2160148219998632</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.339153459308477</v>
+        <v>3.231706480502709</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_224/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_224/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5331505541342381</v>
+        <v>1.130993346123574</v>
       </c>
       <c r="C2">
-        <v>0.1057959876820505</v>
+        <v>0.08600119060048428</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.09971148296677157</v>
+        <v>0.06508395211920259</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002467003654033875</v>
+        <v>0.0008205651098373107</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.8606561198313081</v>
+        <v>0.3500898181610133</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3290543506840038</v>
+        <v>0.9529851467548838</v>
       </c>
       <c r="L2">
-        <v>0.2049819237102781</v>
+        <v>0.2563844996053177</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.282649908514259</v>
+        <v>1.389018782306863</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4891433345004543</v>
+        <v>0.9835581142013154</v>
       </c>
       <c r="C3">
-        <v>0.1049476832844576</v>
+        <v>0.08334919838489441</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.09920872303841222</v>
+        <v>0.06062121318278813</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002469229783322664</v>
+        <v>0.0008240486329283705</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8713952541556189</v>
+        <v>0.3652043514033601</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2908983227742965</v>
+        <v>0.830847865639015</v>
       </c>
       <c r="L3">
-        <v>0.1977173683576581</v>
+        <v>0.2265425236432606</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.320983056847922</v>
+        <v>1.4305393551642</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4621895096719015</v>
+        <v>0.8931715081131131</v>
       </c>
       <c r="C4">
-        <v>0.1044315231265713</v>
+        <v>0.08173439867991306</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.09895297245058998</v>
+        <v>0.05797116886153475</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002470669215449162</v>
+        <v>0.0008262566998534892</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.8784481333453265</v>
+        <v>0.3753366578962485</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2674344730348821</v>
+        <v>0.7558640979943334</v>
       </c>
       <c r="L4">
-        <v>0.1933620614794194</v>
+        <v>0.2084332232171988</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.346397436567059</v>
+        <v>1.459616593776971</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4512231724378921</v>
+        <v>0.8563618411637037</v>
       </c>
       <c r="C5">
-        <v>0.1042223939967073</v>
+        <v>0.08107958183208552</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.09886208814385355</v>
+        <v>0.05691281259741743</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.00247127409951309</v>
+        <v>0.0008271741961160065</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.8814376422975005</v>
+        <v>0.3796731394493182</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2578643485696404</v>
+        <v>0.7253010202107788</v>
       </c>
       <c r="L5">
-        <v>0.1916137753094773</v>
+        <v>0.2011027249515251</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.357226010167452</v>
+        <v>1.472334609121944</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4494033041486034</v>
+        <v>0.8502507296094848</v>
       </c>
       <c r="C6">
-        <v>0.1041877421881452</v>
+        <v>0.08097104004835387</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.09884780300275153</v>
+        <v>0.05673834426943003</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002471375646755765</v>
+        <v>0.0008273276225970139</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.8819410175475841</v>
+        <v>0.3804055490189118</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2562747464634896</v>
+        <v>0.7202253984913938</v>
       </c>
       <c r="L6">
-        <v>0.1913250792334225</v>
+        <v>0.1998883427711888</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.359052590317347</v>
+        <v>1.474497983241307</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4620415416674177</v>
+        <v>0.8926749990615406</v>
       </c>
       <c r="C7">
-        <v>0.1044286977995696</v>
+        <v>0.08172555474593679</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.09895169272559556</v>
+        <v>0.05795680962413385</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002470677298900508</v>
+        <v>0.0008262690016063353</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.8784879836681583</v>
+        <v>0.3753943097922843</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2673054402505954</v>
+        <v>0.7554519516029927</v>
       </c>
       <c r="L7">
-        <v>0.1933383759101304</v>
+        <v>0.2083341682709658</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.346541563555093</v>
+        <v>1.459784637208173</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.517963451371827</v>
+        <v>1.080121669451387</v>
       </c>
       <c r="C8">
-        <v>0.1055025327852661</v>
+        <v>0.0850838630140629</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.09952715543666812</v>
+        <v>0.06352582366424286</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.002467756191466366</v>
+        <v>0.0008217520559249958</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.8642636965744934</v>
+        <v>0.3551203472548465</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3159059561877484</v>
+        <v>0.9108648096087677</v>
       </c>
       <c r="L8">
-        <v>0.2024553325890821</v>
+        <v>0.2460477840061657</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.295477380164968</v>
+        <v>1.402571453742581</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6281277599456701</v>
+        <v>1.449374251050017</v>
       </c>
       <c r="C9">
-        <v>0.1076445235300838</v>
+        <v>0.09178598126455739</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1010749362370902</v>
+        <v>0.07521398638334631</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.002462601376394921</v>
+        <v>0.0008134289585841873</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.8400125127313736</v>
+        <v>0.322440572402158</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.410904419114047</v>
+        <v>1.216141527728951</v>
       </c>
       <c r="L9">
-        <v>0.2211650685690358</v>
+        <v>0.321921310187534</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.210245566488595</v>
+        <v>1.320336990318822</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7093414612786546</v>
+        <v>1.722546041078886</v>
       </c>
       <c r="C10">
-        <v>0.109239005707785</v>
+        <v>0.09679545006317625</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.102466897348112</v>
+        <v>0.08434661110548447</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.002459160335301414</v>
+        <v>0.0008076189533669928</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8244162953129077</v>
+        <v>0.3032090840229209</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4804896305834347</v>
+        <v>1.441417008687608</v>
       </c>
       <c r="L10">
-        <v>0.2354156205236819</v>
+        <v>0.3791639256727706</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.156720669277647</v>
+        <v>1.280420646776491</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7463418150489929</v>
+        <v>1.84743527363463</v>
       </c>
       <c r="C11">
-        <v>0.1099686215239757</v>
+        <v>0.09909652767143484</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1031553097058158</v>
+        <v>0.08863796898939214</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.002457669367557512</v>
+        <v>0.0008050371546847246</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.8178035771634953</v>
+        <v>0.295607187317497</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5120956772026091</v>
+        <v>1.544278450219906</v>
       </c>
       <c r="L11">
-        <v>0.2420077173974562</v>
+        <v>0.4056086579236364</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.134347547766382</v>
+        <v>1.267242386247148</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7603602488313754</v>
+        <v>1.894835110720294</v>
       </c>
       <c r="C12">
-        <v>0.1102454978530787</v>
+        <v>0.09997140470998289</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1034239128937173</v>
+        <v>0.09028428404350208</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.002457115418087628</v>
+        <v>0.0008040678710126386</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.8153688595724944</v>
+        <v>0.2929032488758274</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5240565509353985</v>
+        <v>1.583298622913418</v>
       </c>
       <c r="L12">
-        <v>0.244519640228205</v>
+        <v>0.4156876700708807</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.126159712489226</v>
+        <v>1.263015682970746</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7573408210689934</v>
+        <v>1.884621655652126</v>
       </c>
       <c r="C13">
-        <v>0.1101858419414583</v>
+        <v>0.09978282297453944</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1033657126546714</v>
+        <v>0.08992874823940511</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.002457234248303131</v>
+        <v>0.0008042762574491102</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8158901332440429</v>
+        <v>0.2934776551149447</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5214809134841971</v>
+        <v>1.574891641095178</v>
       </c>
       <c r="L13">
-        <v>0.2439779587564175</v>
+        <v>0.4135139725098753</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.127910456845939</v>
+        <v>1.263891225931431</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.747494980399324</v>
+        <v>1.851332637247623</v>
       </c>
       <c r="C14">
-        <v>0.109991388710533</v>
+        <v>0.09916843212757698</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1031772493204137</v>
+        <v>0.08877297656210104</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.00245762358070929</v>
+        <v>0.0008049572455481816</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8176018807958556</v>
+        <v>0.2953811719577111</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5130798625717432</v>
+        <v>1.547487202275107</v>
       </c>
       <c r="L14">
-        <v>0.2422140619490136</v>
+        <v>0.4064365219421688</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.133668228578173</v>
+        <v>1.266879065145844</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7414650322499199</v>
+        <v>1.830956629249698</v>
       </c>
       <c r="C15">
-        <v>0.1098723560514614</v>
+        <v>0.09879256665749381</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1030628403866807</v>
+        <v>0.08806785199258016</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.002457863443311499</v>
+        <v>0.00080537544997622</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.8186594118715647</v>
+        <v>0.2965701901987643</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5079329605077589</v>
+        <v>1.530710575704916</v>
       </c>
       <c r="L15">
-        <v>0.2411356578874404</v>
+        <v>0.4021100480639177</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.137232073262552</v>
+        <v>1.268810113553201</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7069244539850388</v>
+        <v>1.714398223510443</v>
       </c>
       <c r="C16">
-        <v>0.1091914072389812</v>
+        <v>0.09664554270386816</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1024230169442255</v>
+        <v>0.08406904860695974</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002459259266128363</v>
+        <v>0.0008077888767335402</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.8248581571808451</v>
+        <v>0.3037297862428048</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4784230664196798</v>
+        <v>1.434703622294592</v>
       </c>
       <c r="L16">
-        <v>0.2349870053608356</v>
+        <v>0.3774444128535919</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.158222584611863</v>
+        <v>1.28138607487557</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6857486397104822</v>
+        <v>1.643064814817393</v>
       </c>
       <c r="C17">
-        <v>0.1087747425098655</v>
+        <v>0.09533432210734816</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1020446292421013</v>
+        <v>0.08165206909075806</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.002460134574241664</v>
+        <v>0.0008092848248296147</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.8287843963285937</v>
+        <v>0.308422450575609</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4603067807273646</v>
+        <v>1.375913909363902</v>
       </c>
       <c r="L17">
-        <v>0.2312429678412116</v>
+        <v>0.3624211852557409</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.17160579305343</v>
+        <v>1.290409307802904</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6735741759411837</v>
+        <v>1.602093146164577</v>
       </c>
       <c r="C18">
-        <v>0.1085354923217707</v>
+        <v>0.09458221626140073</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1018321878445931</v>
+        <v>0.08027466945647888</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.002460645032016762</v>
+        <v>0.0008101510413684578</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.8310880376726928</v>
+        <v>0.3112288438576378</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4498822357188885</v>
+        <v>1.342134738618455</v>
       </c>
       <c r="L18">
-        <v>0.2290998043675216</v>
+        <v>0.3538178908233647</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.179489398344771</v>
+        <v>1.296064936065392</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6694530479680907</v>
+        <v>1.588230191413118</v>
       </c>
       <c r="C19">
-        <v>0.108454556637632</v>
+        <v>0.09432791330323909</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1017611521194119</v>
+        <v>0.07981045435723999</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.00246081906871754</v>
+        <v>0.0008104453335134832</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8318758022006065</v>
+        <v>0.312197178861247</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4463519048612454</v>
+        <v>1.330703320291519</v>
       </c>
       <c r="L19">
-        <v>0.2283759394650815</v>
+        <v>0.3509112342170368</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.182190577843272</v>
+        <v>1.298058423035371</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6880022982844309</v>
+        <v>1.650652312019645</v>
       </c>
       <c r="C20">
-        <v>0.1088190555409199</v>
+        <v>0.09547368701868209</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1020843715247963</v>
+        <v>0.08190802650717544</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002460040671672851</v>
+        <v>0.0008091249825661352</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.8283617452090191</v>
+        <v>0.307911734287817</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4622357645759791</v>
+        <v>1.38216844368128</v>
       </c>
       <c r="L20">
-        <v>0.2316404609226055</v>
+        <v>0.3640164873964551</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.170161881714307</v>
+        <v>1.289400236615776</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7503867535567963</v>
+        <v>1.861107378729997</v>
       </c>
       <c r="C21">
-        <v>0.1100484886422777</v>
+        <v>0.09934879576483979</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1032323908952577</v>
+        <v>0.08911186427469886</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002457508935849272</v>
+        <v>0.0008047569986939784</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8170972158008496</v>
+        <v>0.2948172388888608</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5155476677352056</v>
+        <v>1.555534568663916</v>
       </c>
       <c r="L21">
-        <v>0.2427317375635596</v>
+        <v>0.4085135214128854</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.131969311158102</v>
+        <v>1.265980345297024</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7912002036526928</v>
+        <v>1.999284676626871</v>
       </c>
       <c r="C22">
-        <v>0.1108554006579183</v>
+        <v>0.1019020212496287</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1040288204446043</v>
+        <v>0.09394478324730215</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.002455916340673137</v>
+        <v>0.0008019509464206574</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.8101395912735825</v>
+        <v>0.2872827690831343</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.550345183032789</v>
+        <v>1.669247398046025</v>
       </c>
       <c r="L22">
-        <v>0.2500716363759494</v>
+        <v>0.4379770516336521</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.108665977573992</v>
+        <v>1.25514945391987</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7694137627983935</v>
+        <v>1.925472813080972</v>
       </c>
       <c r="C23">
-        <v>0.1104244341964034</v>
+        <v>0.1005373199874953</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1035995370587166</v>
+        <v>0.09135339328717507</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.002456760677728542</v>
+        <v>0.0008034442785881933</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.813815986649125</v>
+        <v>0.2912069747240231</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5317774193455307</v>
+        <v>1.608514556363843</v>
       </c>
       <c r="L23">
-        <v>0.2461458909105119</v>
+        <v>0.4222144891833608</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.120951628850179</v>
+        <v>1.260504056469358</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6869834198234344</v>
+        <v>1.647221884811046</v>
       </c>
       <c r="C24">
-        <v>0.1087990206963099</v>
+        <v>0.0954106747693757</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1020663881554853</v>
+        <v>0.08179227042078097</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.002460083102573517</v>
+        <v>0.0008091972279953866</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.8285526812690662</v>
+        <v>0.3081422918496912</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.461363699744453</v>
+        <v>1.379340708015434</v>
       </c>
       <c r="L24">
-        <v>0.2314607252212539</v>
+        <v>0.3632951466517937</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.170814084018346</v>
+        <v>1.289854983379371</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5982747882083288</v>
+        <v>1.349217209598947</v>
       </c>
       <c r="C25">
-        <v>0.1070613186822911</v>
+        <v>0.08995900199926155</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.100611414942648</v>
+        <v>0.07196214174596349</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.002463934849905751</v>
+        <v>0.0008156254390441209</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.8461830839271052</v>
+        <v>0.3304774275524665</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3852400730747831</v>
+        <v>1.13343425609068</v>
       </c>
       <c r="L25">
-        <v>0.2160148219998632</v>
+        <v>0.301157453834108</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.231706480502709</v>
+        <v>1.33915345930842</v>
       </c>
     </row>
   </sheetData>
